--- a/PT.xlsx
+++ b/PT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
   <si>
     <t xml:space="preserve">Links:  </t>
   </si>
@@ -124,9 +124,6 @@
     <t>O sistema deverá apresentar um erro: "Não é possivel realizar essa operação. Favor informar todos os números."</t>
   </si>
   <si>
-    <t>Subtração</t>
-  </si>
-  <si>
     <t>Div</t>
   </si>
   <si>
@@ -143,15 +140,6 @@
   </si>
   <si>
     <t>elisa lanches</t>
-  </si>
-  <si>
-    <t>O resultado da soma será 2,2</t>
-  </si>
-  <si>
-    <t>Abrir o postman, enviar uma requisição para /api/somar num1 = 2 num2 = 1,3 Enviar a requisição</t>
-  </si>
-  <si>
-    <t>O resultado da soma será 2,3</t>
   </si>
   <si>
     <t>Abrir o postman, enviar uma requisição para /api/subtrair
@@ -627,27 +615,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,10 +856,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -885,44 +873,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -945,10 +933,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3">
@@ -965,8 +953,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -981,8 +969,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -997,8 +985,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1013,8 +1001,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1029,8 +1017,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1045,8 +1033,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -1061,8 +1049,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -1077,348 +1065,346 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11" t="s">
-        <v>26</v>
-      </c>
+    <row r="18" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="19"/>
+    <row r="19" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="3">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="3">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F21" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="3">
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="3">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="3">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="3">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F25" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="3">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="19"/>
+    <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="3">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="3">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F28" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="19"/>
+    <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="3">
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="19"/>
+    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="3">
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F30" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="3">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F31" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="3">
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F32" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="C33" s="3">
         <v>28</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>97</v>
+      <c r="D33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F33" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3">
         <v>29</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>99</v>
+      <c r="D34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="F34" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3">
         <v>30</v>
       </c>
@@ -1433,8 +1419,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3">
         <v>31</v>
       </c>
@@ -1442,337 +1428,337 @@
         <v>59</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F36" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3">
         <v>32</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F37" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3">
         <v>33</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F38" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3">
         <v>34</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F39" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3">
         <v>35</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F40" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3">
         <v>36</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F41" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3">
         <v>37</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F42" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3">
         <v>38</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F43" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="3">
         <v>39</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F44" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="3">
         <v>40</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F45" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="C46" s="3">
         <v>41</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F46" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="3">
         <v>42</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F47" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="3">
         <v>43</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F48" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="3">
         <v>44</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="3">
         <v>45</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F50" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="3">
         <v>46</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F51" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="3">
         <v>47</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F52" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="3">
         <v>48</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F53" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="3">
         <v>49</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F54" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="3">
         <v>50</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F55" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="3">
         <v>51</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F56" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="3">
         <v>52</v>
       </c>
@@ -1787,77 +1773,45 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="3">
         <v>53</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F58" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="3">
-        <v>54</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="3">
-        <v>55</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="A6:A60"/>
-    <mergeCell ref="B18:B34"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="B48:B60"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="B33:B45"/>
+    <mergeCell ref="A6:A58"/>
+    <mergeCell ref="B18:B32"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="B46:B58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -1878,17 +1832,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
